--- a/documentation/TN7_Test.xlsx
+++ b/documentation/TN7_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25620" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Churches" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="395">
   <si>
     <t>Church</t>
   </si>
@@ -1173,42 +1173,9 @@
     <t>Female</t>
   </si>
   <si>
-    <t>UBC</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Floor 1 Rooms</t>
-  </si>
-  <si>
-    <t>Floor 1 Capacity</t>
-  </si>
-  <si>
-    <t>Floor 2 Rooms</t>
-  </si>
-  <si>
-    <t>Floor 2 Capacity</t>
-  </si>
-  <si>
-    <t>Floor 3 Rooms</t>
-  </si>
-  <si>
-    <t>Floor 3 Capacity</t>
-  </si>
-  <si>
-    <t>Floor 4 Rooms</t>
-  </si>
-  <si>
-    <t>Floor 4 Capacity</t>
-  </si>
-  <si>
     <t>Eastview</t>
   </si>
   <si>
@@ -1219,6 +1186,27 @@
   </si>
   <si>
     <t>Champaign</t>
+  </si>
+  <si>
+    <t>Number of Floors</t>
+  </si>
+  <si>
+    <t>Room Type 1 Capacity</t>
+  </si>
+  <si>
+    <t>Room Type 1 Quantity</t>
+  </si>
+  <si>
+    <t>Room Type 2 Capacity</t>
+  </si>
+  <si>
+    <t>Room Type 2 Quantity</t>
+  </si>
+  <si>
+    <t>Room Type 3 Capacity</t>
+  </si>
+  <si>
+    <t>Room Type 3 Quantity</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1289,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1336,15 +1330,21 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1676,7 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2">
         <v>61704</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D3" s="2">
         <v>61820</v>
@@ -2982,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2998,39 +2998,36 @@
     <col min="10" max="10" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="J1" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>379</v>
       </c>
@@ -3038,118 +3035,110 @@
         <v>380</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="D3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
         <v>5</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/TN7_Test.xlsx
+++ b/documentation/TN7_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="398">
   <si>
     <t>Church</t>
   </si>
@@ -1173,6 +1173,12 @@
     <t>Female</t>
   </si>
   <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -1207,6 +1213,9 @@
   </si>
   <si>
     <t>Room Type 3 Quantity</t>
+  </si>
+  <si>
+    <t>University Baptist</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1298,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1330,7 +1345,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1338,6 +1353,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1345,6 +1363,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1758,13 +1779,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D2" s="2">
         <v>61704</v>
@@ -1800,13 +1821,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D3" s="2">
         <v>61820</v>
@@ -2982,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3003,28 +3024,28 @@
         <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3139,6 +3160,64 @@
       </c>
       <c r="I10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/TN7_Test.xlsx
+++ b/documentation/TN7_Test.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Churches" sheetId="1" r:id="rId1"/>
     <sheet name="Buildings" sheetId="2" r:id="rId2"/>
-    <sheet name="Results" sheetId="3" r:id="rId3"/>
-    <sheet name="TN7 Churches" sheetId="4" r:id="rId4"/>
+    <sheet name="TN7 Churches" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1698,7 +1697,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3006,7 +3005,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3232,25 +3231,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>

--- a/documentation/TN7_Test.xlsx
+++ b/documentation/TN7_Test.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Churches" sheetId="1" r:id="rId1"/>
     <sheet name="Buildings" sheetId="2" r:id="rId2"/>
     <sheet name="TN7 Churches" sheetId="4" r:id="rId3"/>
+    <sheet name="Extra Buildings" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="398">
   <si>
     <t>Church</t>
   </si>
@@ -1160,39 +1161,12 @@
     <t>Building</t>
   </si>
   <si>
-    <t>Koinonia Christian</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Stratford Christian</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Unassigned</t>
   </si>
   <si>
-    <t>Sutton</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Eastview</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>First Christian</t>
-  </si>
-  <si>
-    <t>Champaign</t>
-  </si>
-  <si>
     <t>Number of Floors</t>
   </si>
   <si>
@@ -1214,7 +1188,34 @@
     <t>Room Type 3 Quantity</t>
   </si>
   <si>
-    <t>University Baptist</t>
+    <t>Altgeld Hall</t>
+  </si>
+  <si>
+    <t>Grainger Library</t>
+  </si>
+  <si>
+    <t>Wohler's Hall</t>
+  </si>
+  <si>
+    <t>Loomis Hall</t>
+  </si>
+  <si>
+    <t>Noyes Hall</t>
+  </si>
+  <si>
+    <t>Talbot Lab</t>
+  </si>
+  <si>
+    <t>Henry Administration Building</t>
+  </si>
+  <si>
+    <t>Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Illini Union</t>
+  </si>
+  <si>
+    <t>Siebel Center</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1298,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1344,7 +1369,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1355,6 +1380,18 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1365,6 +1402,18 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1697,7 +1746,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1778,1214 +1827,3520 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" s="2">
-        <v>61704</v>
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:K52" si="0">SUM(E2:G2)</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L52" si="1">SUM(H2:J2)</f>
+        <v>5</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" ref="M2:O33" si="2">SUM(E2,H2)</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P52" si="3">SUM(K2:L2)</f>
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>389</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="2">
-        <v>61820</v>
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>8</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>7</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>7</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
+        <v>6</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>8</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>12</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>12</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="4">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:O52" si="4">SUM(E34,H34)</f>
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>14</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>16</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="4">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4">
+        <v>16</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="4">
+        <v>4</v>
+      </c>
+      <c r="I39" s="4">
+        <v>13</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>4</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>7</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="4">
+        <v>12</v>
+      </c>
+      <c r="F44" s="4">
+        <v>57</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="4">
+        <v>8</v>
+      </c>
+      <c r="I44" s="4">
+        <v>40</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="B46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="4">
+        <v>3</v>
+      </c>
+      <c r="I46" s="4">
+        <v>15</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="O47" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>25</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="5">
+        <v>3</v>
+      </c>
+      <c r="I49" s="5">
+        <v>25</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>7</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>16</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="16" thickBot="1">
       <c r="E53" s="6">
-        <f t="shared" ref="E53:O53" si="0">SUM(E2:E52)</f>
-        <v>12</v>
+        <f t="shared" ref="E53:O53" si="5">SUM(E2:E52)</f>
+        <v>103</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f t="shared" si="5"/>
+        <v>497</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>379</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>602</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>491</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>213</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>876</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="P53" s="6">
         <f>SUM(P2:P52)</f>
-        <v>0</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="16" thickTop="1"/>
@@ -3002,10 +5357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="A14:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3023,36 +5378,36 @@
         <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
         <v>379</v>
-      </c>
-      <c r="B2" t="s">
-        <v>380</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3063,13 +5418,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3077,13 +5432,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3096,10 +5451,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3107,66 +5462,48 @@
     </row>
     <row r="7" spans="1:9">
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3174,35 +5511,41 @@
     </row>
     <row r="12" spans="1:9">
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3210,13 +5553,253 @@
         <v>2</v>
       </c>
       <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>391</v>
+      </c>
+      <c r="B31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3234,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6842,4 +9425,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/documentation/TN7_Test.xlsx
+++ b/documentation/TN7_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Churches" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="398">
   <si>
     <t>Church</t>
   </si>
@@ -1298,8 +1298,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1369,7 +1371,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1392,6 +1394,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1414,6 +1417,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1743,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1857,27 +1861,27 @@
         <v>63</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K52" si="0">SUM(E2:G2)</f>
+        <f>SUM(E2:G2)</f>
         <v>6</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L52" si="1">SUM(H2:J2)</f>
+        <f>SUM(H2:J2)</f>
         <v>5</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:O33" si="2">SUM(E2,H2)</f>
+        <f>SUM(E2,H2)</f>
         <v>2</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F2,I2)</f>
         <v>9</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G2,J2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" ref="P2:P52" si="3">SUM(K2:L2)</f>
+        <f>SUM(K2:L2)</f>
         <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1925,27 +1929,27 @@
         <v>63</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E3:G3)</f>
         <v>25</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H3:J3)</f>
         <v>14</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E3,H3)</f>
         <v>3</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F3,I3)</f>
         <v>36</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G3,J3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K3:L3)</f>
         <v>39</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1993,27 +1997,27 @@
         <v>63</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:G4)</f>
         <v>12</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H4:J4)</f>
         <v>16</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E4,H4)</f>
         <v>6</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F4,I4)</f>
         <v>22</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G4,J4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K4:L4)</f>
         <v>28</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -2061,27 +2065,27 @@
         <v>63</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:G5)</f>
         <v>11</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H5:J5)</f>
         <v>6</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E5,H5)</f>
         <v>3</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F5,I5)</f>
         <v>14</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G5,J5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K5:L5)</f>
         <v>17</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -2129,27 +2133,27 @@
         <v>63</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E6:G6)</f>
         <v>8</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H6:J6)</f>
         <v>3</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E6,H6)</f>
         <v>2</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F6,I6)</f>
         <v>9</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G6,J6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K6:L6)</f>
         <v>11</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -2197,27 +2201,27 @@
         <v>63</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E7:G7)</f>
         <v>7</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H7:J7)</f>
         <v>9</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E7,H7)</f>
         <v>3</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F7,I7)</f>
         <v>13</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G7,J7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K7:L7)</f>
         <v>16</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -2265,27 +2269,27 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E8:G8)</f>
         <v>2</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H8:J8)</f>
         <v>5</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E8,H8)</f>
         <v>2</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F8,I8)</f>
         <v>5</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G8,J8)</f>
         <v>0</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K8:L8)</f>
         <v>7</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -2333,27 +2337,27 @@
         <v>63</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E9:G9)</f>
         <v>17</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H9:J9)</f>
         <v>9</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E9,H9)</f>
         <v>6</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F9,I9)</f>
         <v>19</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G9,J9)</f>
         <v>1</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K9:L9)</f>
         <v>26</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -2401,27 +2405,27 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:G10)</f>
         <v>20</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H10:J10)</f>
         <v>6</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E10,H10)</f>
         <v>5</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F10,I10)</f>
         <v>20</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G10,J10)</f>
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K10:L10)</f>
         <v>26</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -2469,27 +2473,27 @@
         <v>63</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E11:G11)</f>
         <v>11</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H11:J11)</f>
         <v>8</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E11,H11)</f>
         <v>4</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F11,I11)</f>
         <v>15</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G11,J11)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K11:L11)</f>
         <v>19</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -2537,27 +2541,27 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E12:G12)</f>
         <v>22</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H12:J12)</f>
         <v>14</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E12,H12)</f>
         <v>6</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F12,I12)</f>
         <v>30</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G12,J12)</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K12:L12)</f>
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -2605,27 +2609,27 @@
         <v>63</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E13:G13)</f>
         <v>16</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H13:J13)</f>
         <v>15</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E13,H13)</f>
         <v>6</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F13,I13)</f>
         <v>25</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G13,J13)</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K13:L13)</f>
         <v>31</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -2673,27 +2677,27 @@
         <v>63</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E14:G14)</f>
         <v>10</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H14:J14)</f>
         <v>7</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E14,H14)</f>
         <v>5</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F14,I14)</f>
         <v>12</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G14,J14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K14:L14)</f>
         <v>17</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -2741,27 +2745,27 @@
         <v>63</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E15:G15)</f>
         <v>15</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H15:J15)</f>
         <v>4</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E15,H15)</f>
         <v>4</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F15,I15)</f>
         <v>15</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G15,J15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K15:L15)</f>
         <v>19</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -2809,27 +2813,27 @@
         <v>63</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E16:G16)</f>
         <v>10</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H16:J16)</f>
         <v>6</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E16,H16)</f>
         <v>4</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F16,I16)</f>
         <v>12</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G16,J16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K16:L16)</f>
         <v>16</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -2877,27 +2881,27 @@
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E17:G17)</f>
         <v>3</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H17:J17)</f>
         <v>2</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E17,H17)</f>
         <v>2</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F17,I17)</f>
         <v>3</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G17,J17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K17:L17)</f>
         <v>5</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -2945,27 +2949,27 @@
         <v>63</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E18:G18)</f>
         <v>5</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H18:J18)</f>
         <v>4</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E18,H18)</f>
         <v>2</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F18,I18)</f>
         <v>7</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G18,J18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K18:L18)</f>
         <v>9</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -3013,27 +3017,27 @@
         <v>63</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E19:G19)</f>
         <v>11</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H19:J19)</f>
         <v>6</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E19,H19)</f>
         <v>3</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F19,I19)</f>
         <v>14</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G19,J19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K19:L19)</f>
         <v>17</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -3081,27 +3085,27 @@
         <v>63</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E20:G20)</f>
         <v>5</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H20:J20)</f>
         <v>10</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E20,H20)</f>
         <v>3</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F20,I20)</f>
         <v>12</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G20,J20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K20:L20)</f>
         <v>15</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -3149,27 +3153,27 @@
         <v>63</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E21:G21)</f>
         <v>13</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H21:J21)</f>
         <v>7</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E21,H21)</f>
         <v>4</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F21,I21)</f>
         <v>16</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G21,J21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K21:L21)</f>
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -3217,27 +3221,27 @@
         <v>63</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E22:G22)</f>
         <v>8</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H22:J22)</f>
         <v>8</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E22,H22)</f>
         <v>4</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F22,I22)</f>
         <v>12</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G22,J22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K22:L22)</f>
         <v>16</v>
       </c>
       <c r="Q22" s="2" t="s">
@@ -3285,27 +3289,27 @@
         <v>63</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E23:G23)</f>
         <v>6</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H23:J23)</f>
         <v>4</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E23,H23)</f>
         <v>2</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F23,I23)</f>
         <v>8</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G23,J23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K23:L23)</f>
         <v>10</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -3353,27 +3357,27 @@
         <v>63</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E24:G24)</f>
         <v>8</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H24:J24)</f>
         <v>10</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E24,H24)</f>
         <v>4</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F24,I24)</f>
         <v>14</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G24,J24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K24:L24)</f>
         <v>18</v>
       </c>
       <c r="Q24" s="2" t="s">
@@ -3421,27 +3425,27 @@
         <v>63</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E25:G25)</f>
         <v>4</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H25:J25)</f>
         <v>9</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E25,H25)</f>
         <v>3</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F25,I25)</f>
         <v>10</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G25,J25)</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K25:L25)</f>
         <v>13</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -3489,27 +3493,27 @@
         <v>63</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E26:G26)</f>
         <v>2</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H26:J26)</f>
         <v>8</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E26,H26)</f>
         <v>3</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F26,I26)</f>
         <v>7</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G26,J26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K26:L26)</f>
         <v>10</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -3557,27 +3561,27 @@
         <v>63</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E27:G27)</f>
         <v>11</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H27:J27)</f>
         <v>9</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E27,H27)</f>
         <v>3</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F27,I27)</f>
         <v>17</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G27,J27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K27:L27)</f>
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -3625,27 +3629,27 @@
         <v>63</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E28:G28)</f>
         <v>16</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H28:J28)</f>
         <v>10</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E28,H28)</f>
         <v>8</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F28,I28)</f>
         <v>18</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G28,J28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K28:L28)</f>
         <v>26</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -3693,27 +3697,27 @@
         <v>63</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E29:G29)</f>
         <v>20</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H29:J29)</f>
         <v>10</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E29,H29)</f>
         <v>5</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F29,I29)</f>
         <v>25</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G29,J29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K29:L29)</f>
         <v>30</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -3761,27 +3765,27 @@
         <v>1</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E30:G30)</f>
         <v>9</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H30:J30)</f>
         <v>11</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E30,H30)</f>
         <v>3</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F30,I30)</f>
         <v>15</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G30,J30)</f>
         <v>2</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K30:L30)</f>
         <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
@@ -3829,27 +3833,27 @@
         <v>63</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E31:G31)</f>
         <v>14</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H31:J31)</f>
         <v>15</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E31,H31)</f>
         <v>5</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F31,I31)</f>
         <v>24</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G31,J31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K31:L31)</f>
         <v>29</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -3897,27 +3901,27 @@
         <v>63</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E32:G32)</f>
         <v>26</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H32:J32)</f>
         <v>15</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E32,H32)</f>
         <v>10</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F32,I32)</f>
         <v>31</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G32,J32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K32:L32)</f>
         <v>41</v>
       </c>
       <c r="Q32" s="2" t="s">
@@ -3965,27 +3969,27 @@
         <v>63</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E33:G33)</f>
         <v>7</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H33:J33)</f>
         <v>2</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E33,H33)</f>
         <v>2</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F33,I33)</f>
         <v>7</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(G33,J33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K33:L33)</f>
         <v>9</v>
       </c>
       <c r="Q33" s="2" t="s">
@@ -4033,27 +4037,27 @@
         <v>63</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E34:G34)</f>
         <v>3</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H34:J34)</f>
         <v>12</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34:O52" si="4">SUM(E34,H34)</f>
+        <f>SUM(E34,H34)</f>
         <v>4</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F34,I34)</f>
         <v>11</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G34,J34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K34:L34)</f>
         <v>15</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -4101,27 +4105,27 @@
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E35:G35)</f>
         <v>14</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H35:J35)</f>
         <v>16</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E35,H35)</f>
         <v>6</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F35,I35)</f>
         <v>24</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G35,J35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K35:L35)</f>
         <v>30</v>
       </c>
       <c r="Q35" s="2" t="s">
@@ -4169,27 +4173,27 @@
         <v>63</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E36:G36)</f>
         <v>9</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H36:J36)</f>
         <v>8</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E36,H36)</f>
         <v>4</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F36,I36)</f>
         <v>13</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G36,J36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K36:L36)</f>
         <v>17</v>
       </c>
       <c r="Q36" s="2" t="s">
@@ -4237,27 +4241,27 @@
         <v>63</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E37:G37)</f>
         <v>6</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H37:J37)</f>
         <v>4</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E37,H37)</f>
         <v>3</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F37,I37)</f>
         <v>7</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G37,J37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K37:L37)</f>
         <v>10</v>
       </c>
       <c r="Q37" s="2" t="s">
@@ -4305,27 +4309,27 @@
         <v>63</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E38:G38)</f>
         <v>13</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H38:J38)</f>
         <v>18</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E38,H38)</f>
         <v>4</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F38,I38)</f>
         <v>27</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G38,J38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K38:L38)</f>
         <v>31</v>
       </c>
       <c r="Q38" s="2" t="s">
@@ -4373,27 +4377,27 @@
         <v>63</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E39:G39)</f>
         <v>20</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H39:J39)</f>
         <v>17</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E39,H39)</f>
         <v>8</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F39,I39)</f>
         <v>29</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G39,J39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K39:L39)</f>
         <v>37</v>
       </c>
       <c r="Q39" s="2" t="s">
@@ -4441,27 +4445,27 @@
         <v>63</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E40:G40)</f>
         <v>4</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H40:J40)</f>
         <v>5</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E40,H40)</f>
         <v>2</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F40,I40)</f>
         <v>7</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G40,J40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K40:L40)</f>
         <v>9</v>
       </c>
       <c r="Q40" s="2" t="s">
@@ -4509,27 +4513,27 @@
         <v>63</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E41:G41)</f>
         <v>8</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H41:J41)</f>
         <v>9</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E41,H41)</f>
         <v>4</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F41,I41)</f>
         <v>13</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G41,J41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K41:L41)</f>
         <v>17</v>
       </c>
       <c r="Q41" s="2" t="s">
@@ -4577,27 +4581,27 @@
         <v>0</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E42:G42)</f>
         <v>5</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H42:J42)</f>
         <v>4</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E42,H42)</f>
         <v>2</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F42,I42)</f>
         <v>7</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G42,J42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K42:L42)</f>
         <v>9</v>
       </c>
       <c r="Q42" s="2" t="s">
@@ -4645,27 +4649,27 @@
         <v>63</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E43:G43)</f>
         <v>9</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H43:J43)</f>
         <v>5</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E43,H43)</f>
         <v>3</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F43,I43)</f>
         <v>11</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G43,J43)</f>
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K43:L43)</f>
         <v>14</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -4713,27 +4717,27 @@
         <v>63</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E44:G44)</f>
         <v>69</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H44:J44)</f>
         <v>48</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E44,H44)</f>
         <v>20</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F44,I44)</f>
         <v>97</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G44,J44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K44:L44)</f>
         <v>117</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -4781,27 +4785,27 @@
         <v>63</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E45:G45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H45:J45)</f>
         <v>8</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E45,H45)</f>
         <v>2</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F45,I45)</f>
         <v>6</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G45,J45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K45:L45)</f>
         <v>8</v>
       </c>
       <c r="Q45" s="2" t="s">
@@ -4849,27 +4853,27 @@
         <v>63</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E46:G46)</f>
         <v>13</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H46:J46)</f>
         <v>18</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E46,H46)</f>
         <v>5</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F46,I46)</f>
         <v>26</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G46,J46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K46:L46)</f>
         <v>31</v>
       </c>
       <c r="Q46" s="2" t="s">
@@ -4917,27 +4921,27 @@
         <v>63</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E47:G47)</f>
         <v>5</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H47:J47)</f>
         <v>6</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E47,H47)</f>
         <v>2</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F47,I47)</f>
         <v>9</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G47,J47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K47:L47)</f>
         <v>11</v>
       </c>
       <c r="Q47" s="2" t="s">
@@ -4985,27 +4989,27 @@
         <v>63</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E48:G48)</f>
         <v>6</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H48:J48)</f>
         <v>2</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E48,H48)</f>
         <v>1</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F48,I48)</f>
         <v>7</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G48,J48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K48:L48)</f>
         <v>8</v>
       </c>
       <c r="Q48" s="2" t="s">
@@ -5053,27 +5057,27 @@
         <v>63</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(E49:G49)</f>
         <v>28</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(H49:J49)</f>
         <v>28</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(E49,H49)</f>
         <v>6</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(F49,I49)</f>
         <v>50</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(G49,J49)</f>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(K49:L49)</f>
         <v>56</v>
       </c>
       <c r="Q49" s="2" t="s">
@@ -5121,27 +5125,27 @@
         <v>63</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E50:G50)</f>
         <v>8</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H50:J50)</f>
         <v>3</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E50,H50)</f>
         <v>2</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F50,I50)</f>
         <v>9</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G50,J50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K50:L50)</f>
         <v>11</v>
       </c>
       <c r="Q50" s="2" t="s">
@@ -5189,27 +5193,27 @@
         <v>63</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E51:G51)</f>
         <v>19</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H51:J51)</f>
         <v>10</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E51,H51)</f>
         <v>6</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F51,I51)</f>
         <v>23</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G51,J51)</f>
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K51:L51)</f>
         <v>29</v>
       </c>
       <c r="Q51" s="2" t="s">
@@ -5257,27 +5261,27 @@
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E52:G52)</f>
         <v>3</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(H52:J52)</f>
         <v>3</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E52,H52)</f>
         <v>2</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F52,I52)</f>
         <v>4</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(G52,J52)</f>
         <v>0</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K52:L52)</f>
         <v>6</v>
       </c>
       <c r="Q52" s="2" t="s">
@@ -5293,57 +5297,6 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16" thickBot="1">
-      <c r="E53" s="6">
-        <f t="shared" ref="E53:O53" si="5">SUM(E2:E52)</f>
-        <v>103</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="5"/>
-        <v>497</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="I53" s="6">
-        <f t="shared" si="5"/>
-        <v>379</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="5"/>
-        <v>602</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="5"/>
-        <v>491</v>
-      </c>
-      <c r="M53" s="6">
-        <f t="shared" si="5"/>
-        <v>213</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="5"/>
-        <v>876</v>
-      </c>
-      <c r="O53" s="6">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P53" s="6">
-        <f>SUM(P2:P52)</f>
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5359,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5897,3525 +5850,57 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
+    <row r="53" spans="5:16" ht="16" thickBot="1">
+      <c r="E53" s="6">
+        <f>SUM(Churches!E2:E52)</f>
+        <v>103</v>
+      </c>
+      <c r="F53" s="6">
+        <f>SUM(Churches!F2:F52)</f>
+        <v>497</v>
+      </c>
+      <c r="G53" s="6">
+        <f>SUM(Churches!G2:G52)</f>
+        <v>2</v>
+      </c>
+      <c r="H53" s="6">
+        <f>SUM(Churches!H2:H52)</f>
+        <v>110</v>
+      </c>
+      <c r="I53" s="6">
+        <f>SUM(Churches!I2:I52)</f>
+        <v>379</v>
+      </c>
+      <c r="J53" s="6">
+        <f>SUM(Churches!J2:J52)</f>
+        <v>2</v>
+      </c>
+      <c r="K53" s="6">
+        <f>SUM(Churches!K2:K52)</f>
+        <v>602</v>
+      </c>
+      <c r="L53" s="6">
+        <f>SUM(Churches!L2:L52)</f>
+        <v>491</v>
+      </c>
+      <c r="M53" s="6">
+        <f>SUM(Churches!M2:M52)</f>
+        <v>213</v>
+      </c>
+      <c r="N53" s="6">
+        <f>SUM(Churches!N2:N52)</f>
+        <v>876</v>
+      </c>
+      <c r="O53" s="6">
+        <f>SUM(Churches!O2:O52)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K52" si="0">SUM(E2:G2)</f>
-        <v>6</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:L52" si="1">SUM(H2:J2)</f>
-        <v>5</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" ref="M2:O33" si="2">SUM(E2,H2)</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P52" si="3">SUM(K2:L2)</f>
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>7</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>6</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>19</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
-        <v>4</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>4</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>9</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>8</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>6</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="4">
-        <v>2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>6</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="4">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>8</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>7</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>6</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4">
-        <v>7</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L27" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4</v>
-      </c>
-      <c r="F28" s="4">
-        <v>12</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="4">
-        <v>4</v>
-      </c>
-      <c r="I28" s="4">
-        <v>6</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4">
-        <v>17</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="4">
-        <v>2</v>
-      </c>
-      <c r="I29" s="4">
-        <v>8</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N29" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="O29" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>7</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>8</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N30" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O30" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="4">
-        <v>12</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="4">
-        <v>3</v>
-      </c>
-      <c r="I31" s="4">
-        <v>12</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L31" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N31" s="4">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5</v>
-      </c>
-      <c r="F32" s="4">
-        <v>21</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5</v>
-      </c>
-      <c r="I32" s="4">
-        <v>10</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L33" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="4">
-        <v>3</v>
-      </c>
-      <c r="I34" s="4">
-        <v>9</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L34" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="M34" s="4">
-        <f t="shared" ref="M34:O52" si="4">SUM(E34,H34)</f>
-        <v>4</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="4">
-        <v>4</v>
-      </c>
-      <c r="F35" s="4">
-        <v>10</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2</v>
-      </c>
-      <c r="I35" s="4">
-        <v>14</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L35" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="O35" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>8</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3</v>
-      </c>
-      <c r="I36" s="4">
-        <v>5</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L36" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="O36" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="4">
-        <v>2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L37" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O37" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4">
-        <v>11</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="4">
-        <v>2</v>
-      </c>
-      <c r="I38" s="4">
-        <v>16</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L38" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="O38" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="4">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="4">
-        <v>4</v>
-      </c>
-      <c r="F39" s="4">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="4">
-        <v>4</v>
-      </c>
-      <c r="I39" s="4">
-        <v>13</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="O39" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>3</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>4</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L40" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O40" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2</v>
-      </c>
-      <c r="I41" s="4">
-        <v>7</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L41" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L42" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N42" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O42" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3</v>
-      </c>
-      <c r="F43" s="4">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>5</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L43" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M43" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N43" s="4">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="O43" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="4">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="4">
-        <v>12</v>
-      </c>
-      <c r="F44" s="4">
-        <v>57</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="4">
-        <v>8</v>
-      </c>
-      <c r="I44" s="4">
-        <v>40</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="L44" s="4">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="N44" s="4">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="4">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="4">
-        <v>2</v>
-      </c>
-      <c r="I45" s="4">
-        <v>6</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M45" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N45" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O45" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-      <c r="F46" s="4">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="4">
-        <v>3</v>
-      </c>
-      <c r="I46" s="4">
-        <v>15</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L46" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N46" s="4">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="O46" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>5</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="4">
-        <v>2</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L47" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M47" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N47" s="4">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O47" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L48" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M48" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N48" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O48" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5">
-        <v>25</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="5">
-        <v>3</v>
-      </c>
-      <c r="I49" s="5">
-        <v>25</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="M49" s="5">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="5">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>7</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <v>2</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L50" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M50" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N50" s="4">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O50" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3</v>
-      </c>
-      <c r="F51" s="4">
-        <v>16</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="4">
-        <v>3</v>
-      </c>
-      <c r="I51" s="4">
-        <v>7</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L51" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M51" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="N51" s="4">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="O51" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>2</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L52" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M52" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N52" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O52" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="16" thickBot="1">
-      <c r="E53" s="6">
-        <f t="shared" ref="E53:O53" si="5">SUM(E2:E52)</f>
-        <v>103</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="5"/>
-        <v>497</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="I53" s="6">
-        <f t="shared" si="5"/>
-        <v>379</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="5"/>
-        <v>602</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="5"/>
-        <v>491</v>
-      </c>
-      <c r="M53" s="6">
-        <f t="shared" si="5"/>
-        <v>213</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="5"/>
-        <v>876</v>
-      </c>
-      <c r="O53" s="6">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="P53" s="6">
-        <f>SUM(P2:P52)</f>
+        <f>SUM(Churches!P2:P52)</f>
         <v>1093</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16" thickTop="1"/>
+    <row r="54" spans="5:16" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
